--- a/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
@@ -1,6 +1,380 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="480" yWindow="108" windowWidth="22056" windowHeight="9264" activeTab="2"/>
+  </bookViews>
+  <sheets>
+    <sheet name="主表信息" sheetId="1" r:id="rId1"/>
+    <sheet name="采购明细汇总" sheetId="2" r:id="rId2"/>
+    <sheet name="其他支付明细汇总" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="145621"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+  <si>
+    <t>项目编号</t>
+  </si>
+  <si>
+    <t>项目名称</t>
+  </si>
+  <si>
+    <t>项目经理</t>
+  </si>
+  <si>
+    <t>立项时间</t>
+  </si>
+  <si>
+    <t>客户名称</t>
+  </si>
+  <si>
+    <t>中标金额</t>
+  </si>
+  <si>
+    <t>管理费</t>
+  </si>
+  <si>
+    <t>中标服务费</t>
+  </si>
+  <si>
+    <t>中标方</t>
+  </si>
+  <si>
+    <t>合同金额</t>
+  </si>
+  <si>
+    <t>签定日期</t>
+  </si>
+  <si>
+    <t>开票时间</t>
+  </si>
+  <si>
+    <t>开票金额</t>
+  </si>
+  <si>
+    <t>已开票待回款</t>
+  </si>
+  <si>
+    <t>回款时间</t>
+  </si>
+  <si>
+    <t>回款总额</t>
+  </si>
+  <si>
+    <t>应收金额</t>
+  </si>
+  <si>
+    <t>未收占比</t>
+  </si>
+  <si>
+    <t>采购应付</t>
+  </si>
+  <si>
+    <t>采购已付</t>
+  </si>
+  <si>
+    <t>采购未付</t>
+  </si>
+  <si>
+    <t>其他支付</t>
+  </si>
+  <si>
+    <t>支出合计</t>
+  </si>
+  <si>
+    <t>垫资金额</t>
+  </si>
+  <si>
+    <t>资金成本</t>
+  </si>
+  <si>
+    <t>现金毛利</t>
+  </si>
+  <si>
+    <t>应收毛利</t>
+  </si>
+  <si>
+    <t>&amp;=order.bp_proj_id</t>
+  </si>
+  <si>
+    <t>&amp;=order.bp_proj_name</t>
+  </si>
+  <si>
+    <t>&amp;=order.bp_manager</t>
+  </si>
+  <si>
+    <t>&amp;=order.bp_date</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_name</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_cont_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.proj_man_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_win_sfee</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_win_bidder</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_action_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_conclude_time</t>
+  </si>
+  <si>
+    <t>&amp;=order.max_bc_invoice_date</t>
+  </si>
+  <si>
+    <t>&amp;=order.bc_inv_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.inv_back_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.max_bc_col_date</t>
+  </si>
+  <si>
+    <t>&amp;=order.brp_back_amount_d</t>
+  </si>
+  <si>
+    <t>&amp;=order.receivable_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.not_receivable_per</t>
+  </si>
+  <si>
+    <t>&amp;=order.po_payable_tamount</t>
+  </si>
+  <si>
+    <t>&amp;=order.po_pay_tamount</t>
+  </si>
+  <si>
+    <t>&amp;=order.po_not_pay_tamount</t>
+  </si>
+  <si>
+    <t>&amp;=order.others_pay_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.proj_pay_total</t>
+  </si>
+  <si>
+    <t>&amp;=order.pad_branch_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.pad_branch_cost</t>
+  </si>
+  <si>
+    <t>&amp;=order.cash_margin_amount</t>
+  </si>
+  <si>
+    <t>&amp;=order.payable_margin_amount</t>
+  </si>
+  <si>
+    <t>项目整体结算表列表</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>采购应付/已付明细</t>
+  </si>
+  <si>
+    <t>费用分期</t>
+  </si>
+  <si>
+    <t>计划付款日期</t>
+  </si>
+  <si>
+    <t>计划付款金额</t>
+  </si>
+  <si>
+    <t>实际付款日期</t>
+  </si>
+  <si>
+    <t>付款金额</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpm_proj_id</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpm_name</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpcp_progre_name</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpcp_date</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpcp_pay_amount</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.bpp_pay_date</t>
+  </si>
+  <si>
+    <t>&amp;=contarct.pay_amount</t>
+  </si>
+  <si>
+    <t>其他支出明细</t>
+  </si>
+  <si>
+    <t>单号</t>
+  </si>
+  <si>
+    <t>单据_费用类型</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>&amp;=other.bpm_proj_id</t>
+  </si>
+  <si>
+    <t>&amp;=other.bpm_name</t>
+  </si>
+  <si>
+    <t>&amp;=other.bus_id</t>
+  </si>
+  <si>
+    <t>&amp;=other.bus_type</t>
+  </si>
+  <si>
+    <t>&amp;=other.apply_date</t>
+  </si>
+  <si>
+    <t>&amp;=other.pay_amount</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+  </cellStyleXfs>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10,39 +384,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -121,139 +495,637 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12.77734375" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="15.44140625" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+    </row>
+    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="A1:AA1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.21875" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="108" windowWidth="22056" windowHeight="9264" activeTab="2"/>
+    <workbookView windowWidth="22703" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主表信息" sheetId="1" r:id="rId1"/>
     <sheet name="采购明细汇总" sheetId="2" r:id="rId2"/>
     <sheet name="其他支付明细汇总" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
   <si>
+    <t>项目整体结算表列表</t>
+  </si>
+  <si>
     <t>项目编号</t>
   </si>
   <si>
@@ -178,10 +181,6 @@
   </si>
   <si>
     <t>&amp;=order.payable_margin_amount</t>
-  </si>
-  <si>
-    <t>项目整体结算表列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>采购应付/已付明细</t>
@@ -256,65 +255,387 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
+      <sz val="16"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="宋体"/>
-      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="20"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -322,48 +643,349 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -654,284 +1276,261 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AA4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="11" customWidth="1"/>
-    <col min="12" max="12" width="12.77734375" customWidth="1"/>
-    <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="15.44140625" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="23.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="10.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="17.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="11.7777777777778" customWidth="1"/>
+    <col min="9" max="9" width="11.8888888888889" customWidth="1"/>
+    <col min="10" max="10" width="12.1111111111111" customWidth="1"/>
+    <col min="11" max="11" width="22.8888888888889" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1111111111111" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="40.2" customHeight="1" spans="1:27">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" ht="15.6" spans="1:27">
+      <c r="A4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U4" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="V4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W4" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="X4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA4" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-    </row>
-    <row r="4" spans="1:27" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
     <mergeCell ref="A1:AA1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -942,182 +1541,186 @@
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="20.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="23.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="13.5555555555556" customWidth="1"/>
+    <col min="4" max="4" width="22.5555555555556" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="21.1111111111111" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1111111111111" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="42" customHeight="1" spans="1:8">
+      <c r="A1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="2"/>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="8"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="3" ht="15.6" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="7"/>
+      <c r="H3" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="15.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" customWidth="1"/>
+    <col min="1" max="1" width="25.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="17.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="20.1111111111111" customWidth="1"/>
+    <col min="4" max="4" width="19.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="20.5555555555556" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="33.6" customHeight="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:6">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" ht="15.6" spans="1:6">
+      <c r="A3" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>75</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1125,7 +1728,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:F1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
+++ b/hzaction-master/src/main/webapp/export/template/项目整体结算表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22703" windowHeight="9720" activeTab="2"/>
+    <workbookView windowWidth="22488" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="主表信息" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>&amp;=contarct.bpm_name</t>
   </si>
   <si>
-    <t>&amp;=contarct.bpcp_progre_name</t>
+    <t>&amp;=contarct.typename</t>
   </si>
   <si>
     <t>&amp;=contarct.bpcp_date</t>
@@ -243,7 +243,7 @@
     <t>&amp;=other.bus_id</t>
   </si>
   <si>
-    <t>&amp;=other.bus_type</t>
+    <t>&amp;=other.typename</t>
   </si>
   <si>
     <t>&amp;=other.apply_date</t>
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="25">
@@ -297,8 +297,92 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -321,32 +405,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -366,80 +434,12 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -450,187 +450,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -641,45 +641,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -712,8 +673,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -721,8 +682,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -741,6 +726,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -749,10 +749,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,133 +761,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1572,7 +1572,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
@@ -1661,7 +1661,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="5"/>
